--- a/spliced/falling/2023-03-21_15-34-04/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-04/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.3077233731746673</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.6001750826835632</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.166460782289505</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2874121069908142</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-21_15-34-04/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-04/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.04505131021142</v>
+        <v>-0.1041525229811668</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0474947728216648</v>
+        <v>0.2035708427429199</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0012217304902151</v>
+        <v>0.0946841165423393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.027030786499381</v>
+        <v>-0.04505131021142</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1934915632009506</v>
+        <v>0.0474947728216648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.019089538604021</v>
+        <v>-0.0012217304902151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0968221426010131</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1188132911920547</v>
+        <v>0.1934915632009506</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.111024759709835</v>
+        <v>0.019089538604021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0375682115554809</v>
+        <v>0.0968221426010131</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2264782935380935</v>
+        <v>0.1188132911920547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0942259654402732</v>
+        <v>-0.111024759709835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8402451276779175</v>
+        <v>-0.0375682115554809</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9257662892341614</v>
+        <v>-0.2264782935380935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5154175758361816</v>
+        <v>0.0942259654402732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4760167300701141</v>
+        <v>-0.8402451276779175</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7556403279304504</v>
+        <v>-0.9257662892341614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2362521290779113</v>
+        <v>0.5154175758361816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.270725250244141</v>
+        <v>0.4760167300701141</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.487748622894287</v>
+        <v>0.7556403279304504</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.372128963470459</v>
+        <v>-0.2362521290779113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.6478226184844971</v>
+        <v>3.270725250244141</v>
       </c>
       <c r="B9" t="n">
-        <v>2.27852725982666</v>
+        <v>-2.487748622894287</v>
       </c>
       <c r="C9" t="n">
-        <v>1.823280096054077</v>
+        <v>-3.372128963470459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0369573459029197</v>
+        <v>-0.6478226184844971</v>
       </c>
       <c r="B10" t="n">
-        <v>2.615877628326416</v>
+        <v>2.27852725982666</v>
       </c>
       <c r="C10" t="n">
-        <v>1.630857467651367</v>
+        <v>1.823280096054077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5739079117774963</v>
+        <v>-0.0369573459029197</v>
       </c>
       <c r="B11" t="n">
-        <v>1.733788251876831</v>
+        <v>2.615877628326416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7820602059364319</v>
+        <v>1.630857467651367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8460483551025391</v>
+        <v>0.5739079117774963</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2235766798257827</v>
+        <v>1.733788251876831</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6638578176498413</v>
+        <v>0.7820602059364319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5737552046775818</v>
+        <v>0.8460483551025391</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3006984293460846</v>
+        <v>0.2235766798257827</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3161227703094482</v>
+        <v>0.6638578176498413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1904372423887252</v>
+        <v>0.5737552046775818</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2438879460096359</v>
+        <v>-0.3006984293460846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0226020142436027</v>
+        <v>-0.3161227703094482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0054977871477603</v>
+        <v>0.1904372423887252</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0597120784223079</v>
+        <v>-0.2438879460096359</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3837760984897613</v>
+        <v>0.0226020142436027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.072998397052288</v>
+        <v>-0.0054977871477603</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4034765064716339</v>
+        <v>0.0597120784223079</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0620028227567672</v>
+        <v>-0.3837760984897613</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.032223142683506</v>
+        <v>-0.072998397052288</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4314235746860504</v>
+        <v>0.4034765064716339</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2561052441596985</v>
+        <v>-0.0620028227567672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0665843114256858</v>
+        <v>0.032223142683506</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4109596014022827</v>
+        <v>0.4314235746860504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2779437005519867</v>
+        <v>0.2561052441596985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3990477323532104</v>
+        <v>-0.0665843114256858</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.5852088928222656</v>
+        <v>-0.4109596014022827</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0757472887635231</v>
+        <v>0.2779437005519867</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.342084527015686</v>
+        <v>-0.3990477323532104</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1157589629292488</v>
+        <v>-0.5852088928222656</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.209526777267456</v>
+        <v>-0.0757472887635231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.342084527015686</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1157589629292488</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.209526777267456</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-0.8017606139183044</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-0.1394299864768982</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-0.3077233731746673</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.6001750826835632</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.166460782289505</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2874121069908142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1484402567148208</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0137444678694009</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1325577646493911</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0577267669141292</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1240056455135345</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0187841057777404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0021380283869802</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0429132841527462</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1725694388151168</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0100792767480015</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0042760567739605</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0404698215425014</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0004581489483825</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0215329993516206</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0074830991216003</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0334448739886283</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1394299864768982</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0435241498053073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.040775254368782</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2396118938922882</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.057115901261568</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2092213481664657</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0080939643085002</v>
       </c>
     </row>
   </sheetData>
